--- a/data/les-miserables-scenes-sdd.xlsx
+++ b/data/les-miserables-scenes-sdd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamie/opt/whyis_census_demo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9234E90-97B6-524D-800E-336D2F90748F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03ACF539-6E92-DC43-BC68-F28CEFABA6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2740" yWindow="6380" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary Mapping" sheetId="2" r:id="rId1"/>
@@ -635,8 +635,8 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="241" zoomScaleNormal="241" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L8" sqref="L8"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -783,17 +783,17 @@
       <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
+      <c r="E6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="R6" s="11"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>68</v>
